--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>1.339978359195667</v>
+        <v>1.264237765338167</v>
       </c>
       <c r="R2">
-        <v>8.039870155174</v>
+        <v>7.585426592029</v>
       </c>
       <c r="S2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="T2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>0.685236740474</v>
+        <v>0.6852367404740001</v>
       </c>
       <c r="R3">
-        <v>6.167130664266</v>
+        <v>6.167130664266002</v>
       </c>
       <c r="S3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="T3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>0.5771097268762222</v>
+        <v>0.5807413596269999</v>
       </c>
       <c r="R4">
-        <v>5.193987541886</v>
+        <v>5.226672236642999</v>
       </c>
       <c r="S4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="T4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>0.8965937569874999</v>
+        <v>0.7360773558948334</v>
       </c>
       <c r="R5">
-        <v>5.379562541925</v>
+        <v>4.416464135369</v>
       </c>
       <c r="S5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="T5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>0.9066573548731113</v>
+        <v>0.4853114575515556</v>
       </c>
       <c r="R6">
-        <v>8.159916193858001</v>
+        <v>4.367803117964001</v>
       </c>
       <c r="S6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="T6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>0.6110607182521111</v>
+        <v>0.4868599544856667</v>
       </c>
       <c r="R7">
-        <v>5.499546464269</v>
+        <v>4.381739590371</v>
       </c>
       <c r="S7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="T7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
     </row>
   </sheetData>
